--- a/data/trans_orig/P35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE5305ED-71CD-4B34-82D3-ABADF2597542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{638C953F-C771-473C-9996-CA46A42745D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A9B11B27-35B4-42B2-AB4E-6DDA90490C4C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7B8AB4C-8904-4442-A0C5-4A7D38BE9063}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,7%</t>
   </si>
   <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,3%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,25 +197,25 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>9,49%</t>
+    <t>9,33%</t>
   </si>
   <si>
     <t>12,99%</t>
@@ -224,19 +224,19 @@
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>88,86%</t>
@@ -245,7 +245,7 @@
     <t>87,01%</t>
   </si>
   <si>
-    <t>90,51%</t>
+    <t>90,67%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,49 +254,55 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,54%</t>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>82,2%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>85,46%</t>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -305,55 +311,55 @@
     <t>36,36%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
+    <t>58,83%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,109 +368,109 @@
     <t>48,55%</t>
   </si>
   <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
+    <t>44,25%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
   </si>
   <si>
     <t>47,03%</t>
   </si>
   <si>
-    <t>42,97%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>50,54%</t>
   </si>
   <si>
     <t>51,45%</t>
   </si>
   <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>55,75%</t>
   </si>
   <si>
     <t>52,97%</t>
   </si>
   <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -476,1099 +482,1087 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,33%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>83,98%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>32,79%</t>
   </si>
   <si>
     <t>75,36%</t>
   </si>
   <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,46%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>28,87%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>72,98%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>46,42%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,64%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>57,64%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,86%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,03%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>52,59%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>55,12%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,86%</t>
+  </si>
+  <si>
+    <t>45,51%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>32,66%</t>
   </si>
   <si>
-    <t>71,13%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
   </si>
   <si>
     <t>67,34%</t>
   </si>
   <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>51,81%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>53,76%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>50,77%</t>
-  </si>
-  <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
   </si>
   <si>
     <t>31,43%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
   </si>
   <si>
     <t>68,57%</t>
   </si>
   <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
   </si>
   <si>
     <t>55,02%</t>
   </si>
   <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
   </si>
   <si>
     <t>54,71%</t>
   </si>
   <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
+    <t>52,26%</t>
+  </si>
+  <si>
     <t>57,48%</t>
   </si>
   <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
+    <t>54,11%</t>
   </si>
   <si>
     <t>43,72%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
   </si>
   <si>
     <t>46,65%</t>
   </si>
   <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
+    <t>45,89%</t>
   </si>
   <si>
     <t>56,28%</t>
   </si>
   <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>37,09%</t>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>62,91%</t>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>67,09%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
   </si>
 </sst>
 </file>
@@ -1980,7 +1974,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8161B274-9C9A-478E-BD41-C731851EDEB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AE8C7-7521-485F-AECA-BAFDD5FC3FE2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2337,7 +2331,7 @@
         <v>1144</v>
       </c>
       <c r="N8" s="7">
-        <v>1202398</v>
+        <v>1202399</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2388,7 +2382,7 @@
         <v>1228</v>
       </c>
       <c r="N9" s="7">
-        <v>1290112</v>
+        <v>1290113</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2605,7 +2599,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,13 +2614,13 @@
         <v>417930</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>382</v>
@@ -2635,13 +2629,13 @@
         <v>394989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>772</v>
@@ -2650,13 +2644,13 @@
         <v>812919</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,7 +2706,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2724,13 +2718,13 @@
         <v>133544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>126</v>
@@ -2739,13 +2733,13 @@
         <v>127865</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>263</v>
@@ -2754,13 +2748,13 @@
         <v>261409</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2775,13 +2769,13 @@
         <v>233779</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -2790,13 +2784,13 @@
         <v>265066</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>495</v>
@@ -2805,13 +2799,13 @@
         <v>498845</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,7 +2861,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2879,13 +2873,13 @@
         <v>236305</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>296</v>
@@ -2894,13 +2888,13 @@
         <v>301807</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>543</v>
@@ -2909,13 +2903,13 @@
         <v>538112</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2924,13 @@
         <v>250429</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>330</v>
@@ -2945,13 +2939,13 @@
         <v>339901</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>589</v>
@@ -2960,13 +2954,13 @@
         <v>590331</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,13 +3028,13 @@
         <v>547321</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>676</v>
@@ -3049,13 +3043,13 @@
         <v>691606</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1231</v>
@@ -3064,13 +3058,13 @@
         <v>1238927</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,16 +3076,16 @@
         <v>2513</v>
       </c>
       <c r="D23" s="7">
-        <v>2579902</v>
+        <v>2579901</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2454</v>
@@ -3100,13 +3094,13 @@
         <v>2516427</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4967</v>
@@ -3115,13 +3109,13 @@
         <v>5096329</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3133,7 +3127,7 @@
         <v>3068</v>
       </c>
       <c r="D24" s="7">
-        <v>3127223</v>
+        <v>3127222</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3177,7 +3171,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3199,7 +3193,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8542C1D-BAB3-4C56-A9B3-CA2B62EF4464}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF2B372-A4B7-4A3B-B381-FA68B49A2CD2}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3216,7 +3210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3317,13 @@
         <v>23375</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -3338,13 +3332,13 @@
         <v>57539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -3353,13 +3347,13 @@
         <v>80914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3374,13 +3368,13 @@
         <v>416659</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -3389,13 +3383,13 @@
         <v>359815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>760</v>
@@ -3404,13 +3398,13 @@
         <v>776474</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3478,13 +3472,13 @@
         <v>87664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -3493,13 +3487,13 @@
         <v>122803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3508,13 +3502,13 @@
         <v>210468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3523,13 @@
         <v>578976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -3544,28 +3538,28 @@
         <v>469292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1007</v>
       </c>
       <c r="N8" s="7">
-        <v>1048268</v>
+        <v>1048267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3601,7 @@
         <v>1204</v>
       </c>
       <c r="N9" s="7">
-        <v>1258736</v>
+        <v>1258735</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3633,13 +3627,13 @@
         <v>112871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -3648,13 +3642,13 @@
         <v>189084</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -3663,13 +3657,13 @@
         <v>301954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +3678,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H11" s="7">
         <v>472</v>
@@ -3788,13 +3782,13 @@
         <v>147658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3803,10 +3797,10 @@
         <v>207955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>202</v>
@@ -3839,13 +3833,13 @@
         <v>451611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -3854,13 +3848,13 @@
         <v>390508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>748</v>
@@ -3931,7 +3925,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4086,7 +4080,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4146,7 +4140,7 @@
         <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>248796</v>
+        <v>248795</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>241</v>
@@ -4197,7 +4191,7 @@
         <v>492</v>
       </c>
       <c r="D21" s="7">
-        <v>545081</v>
+        <v>545080</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4271,10 +4265,10 @@
         <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -4283,13 +4277,13 @@
         <v>2051421</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4304,13 +4298,13 @@
         <v>2463500</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2107</v>
@@ -4319,13 +4313,13 @@
         <v>2264727</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
       <c r="M23" s="7">
         <v>4436</v>
@@ -4334,13 +4328,13 @@
         <v>4728227</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,7 +4390,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4418,7 +4412,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{503DC739-C1E3-492B-9F0B-0D5FD2E73CE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84058F79-BC08-4D77-AFE0-132E260CAD77}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4435,7 +4429,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +4536,13 @@
         <v>40115</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -4557,13 +4551,13 @@
         <v>44783</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -4572,13 +4566,13 @@
         <v>84898</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +4587,13 @@
         <v>368247</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4608,13 +4602,13 @@
         <v>344675</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>698</v>
@@ -4623,13 +4617,13 @@
         <v>712922</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4691,13 @@
         <v>75106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -4712,13 +4706,13 @@
         <v>134872</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>210</v>
@@ -4727,13 +4721,13 @@
         <v>209978</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,7 +4742,7 @@
         <v>507604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>295</v>
@@ -5150,7 +5144,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5305,7 +5299,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5389,7 +5383,7 @@
         <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="M20" s="7">
         <v>608</v>
@@ -5398,13 +5392,13 @@
         <v>648359</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,13 +5466,13 @@
         <v>931456</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1123</v>
@@ -5487,13 +5481,13 @@
         <v>1217911</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>2010</v>
@@ -5502,13 +5496,13 @@
         <v>2149368</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,13 +5517,13 @@
         <v>2408064</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>2171</v>
@@ -5538,13 +5532,13 @@
         <v>2278038</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>4463</v>
@@ -5553,10 +5547,10 @@
         <v>4686101</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
         <v>390</v>
@@ -5615,7 +5609,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5631,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6CB658-7A5D-4D18-8603-41C215963A12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFF01A4-436D-443B-8672-0A720030E85C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5791,7 +5785,7 @@
         <v>164251</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>398</v>
@@ -5952,7 +5946,7 @@
         <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5967,13 +5961,13 @@
         <v>317705</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -5982,13 +5976,13 @@
         <v>373430</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>574</v>
@@ -5997,13 +5991,13 @@
         <v>691135</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6071,13 +6065,13 @@
         <v>150855</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
@@ -6086,13 +6080,13 @@
         <v>191369</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
@@ -6101,13 +6095,13 @@
         <v>342224</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6122,13 +6116,13 @@
         <v>406397</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>580</v>
@@ -6137,13 +6131,13 @@
         <v>390714</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
@@ -6152,13 +6146,13 @@
         <v>797110</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6220,13 @@
         <v>237414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>205</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H13" s="7">
         <v>406</v>
@@ -6241,13 +6235,13 @@
         <v>283581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>242</v>
       </c>
       <c r="M13" s="7">
         <v>622</v>
@@ -6256,13 +6250,13 @@
         <v>520995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6271,13 @@
         <v>486576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>212</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
@@ -6292,13 +6286,13 @@
         <v>462485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>234</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="M14" s="7">
         <v>1182</v>
@@ -6307,13 +6301,13 @@
         <v>949061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +6363,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6381,13 +6375,13 @@
         <v>269925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -6396,13 +6390,13 @@
         <v>268990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="M16" s="7">
         <v>722</v>
@@ -6411,13 +6405,13 @@
         <v>538915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6432,13 +6426,13 @@
         <v>330232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>465</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H17" s="7">
         <v>573</v>
@@ -6447,13 +6441,13 @@
         <v>324941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M17" s="7">
         <v>941</v>
@@ -6462,13 +6456,13 @@
         <v>655173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>472</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6524,7 +6518,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6533,16 +6527,16 @@
         <v>527</v>
       </c>
       <c r="D19" s="7">
-        <v>355477</v>
+        <v>355478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H19" s="7">
         <v>812</v>
@@ -6551,13 +6545,13 @@
         <v>448401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>1339</v>
@@ -6566,13 +6560,13 @@
         <v>803879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,13 +6581,13 @@
         <v>342277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="H20" s="7">
         <v>894</v>
@@ -6602,13 +6596,13 @@
         <v>577164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="M20" s="7">
         <v>1395</v>
@@ -6617,13 +6611,13 @@
         <v>919441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6635,7 +6629,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6691,13 +6685,13 @@
         <v>1185285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>2074</v>
@@ -6706,13 +6700,13 @@
         <v>1420816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>3360</v>
@@ -6721,13 +6715,13 @@
         <v>2606102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6742,13 +6736,13 @@
         <v>2199943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>3282</v>
@@ -6757,13 +6751,13 @@
         <v>2380362</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>504</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>5372</v>
@@ -6772,13 +6766,13 @@
         <v>4580305</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>507</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6834,7 +6828,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{638C953F-C771-473C-9996-CA46A42745D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{73AC9BC0-59AD-4FD1-8BCB-5DA3F0CAB3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C7B8AB4C-8904-4442-A0C5-4A7D38BE9063}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F4B6308-1F99-4A4C-AF40-2D8C63BB29C1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,7%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,3%</t>
   </si>
   <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,76 +140,76 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,71%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
+    <t>8,27%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
     <t>94,54%</t>
   </si>
   <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
     <t>35/44</t>
   </si>
   <si>
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
   </si>
   <si>
     <t>11,14%</t>
@@ -218,31 +218,31 @@
     <t>9,33%</t>
   </si>
   <si>
-    <t>12,99%</t>
+    <t>13,09%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>87,01%</t>
+    <t>86,91%</t>
   </si>
   <si>
     <t>90,67%</t>
@@ -254,55 +254,55 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>80,92%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,55 +311,55 @@
     <t>36,36%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
   </si>
   <si>
     <t>34,38%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
   </si>
   <si>
     <t>63,64%</t>
   </si>
   <si>
-    <t>58,83%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
   </si>
   <si>
     <t>65,62%</t>
   </si>
   <si>
-    <t>61,85%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -368,109 +368,109 @@
     <t>48,55%</t>
   </si>
   <si>
-    <t>44,25%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
   </si>
   <si>
     <t>47,03%</t>
   </si>
   <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
   </si>
   <si>
     <t>51,45%</t>
   </si>
   <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>55,75%</t>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
   </si>
   <si>
     <t>52,97%</t>
   </si>
   <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
   </si>
   <si>
     <t>17,5%</t>
   </si>
   <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
   </si>
   <si>
     <t>21,56%</t>
   </si>
   <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
   </si>
   <si>
     <t>19,56%</t>
   </si>
   <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
   </si>
   <si>
     <t>82,5%</t>
   </si>
   <si>
-    <t>81,02%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>78,44%</t>
   </si>
   <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>80,44%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>81,38%</t>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>81,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -482,921 +482,957 @@
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>13,79%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
   </si>
   <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>94,69%</t>
   </si>
   <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>86,21%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
   </si>
   <si>
     <t>90,56%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
   </si>
   <si>
     <t>13,15%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
   </si>
   <si>
     <t>20,74%</t>
   </si>
   <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
   </si>
   <si>
     <t>16,72%</t>
   </si>
   <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
   </si>
   <si>
     <t>86,85%</t>
   </si>
   <si>
-    <t>83,98%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>79,26%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
   </si>
   <si>
     <t>83,28%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>20,48%</t>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>82,75%</t>
   </si>
   <si>
-    <t>79,52%</t>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>76,17%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>75,04%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
   </si>
   <si>
     <t>24,64%</t>
   </si>
   <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
   </si>
   <si>
     <t>34,75%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
   </si>
   <si>
     <t>29,69%</t>
   </si>
   <si>
-    <t>27,02%</t>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,5%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,42%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,73%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,51%</t>
+  </si>
+  <si>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>83,1%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,69%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,09%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>45,14%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,43%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,5%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>68,86%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>63,45%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>60,75%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,64%</t>
+    <t>62,85%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
   </si>
   <si>
     <t>58,9%</t>
   </si>
   <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>57,64%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>42,36%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,86%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,45%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2015 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>68,47%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,46%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
-  </si>
-  <si>
-    <t>59,54%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,0%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>48,87%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>53,0%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>51,13%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>32,66%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>67,34%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
     <t>65,56%</t>
   </si>
   <si>
@@ -1469,9 +1505,6 @@
     <t>54,11%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
     <t>29,66%</t>
   </si>
   <si>
@@ -1484,18 +1517,12 @@
     <t>36,59%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
     <t>49,05%</t>
   </si>
   <si>
     <t>45,89%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
     <t>50,13%</t>
   </si>
   <si>
@@ -1503,9 +1530,6 @@
   </si>
   <si>
     <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
   </si>
   <si>
     <t>63,41%</t>
@@ -1974,7 +1998,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{721AE8C7-7521-485F-AECA-BAFDD5FC3FE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066834E-F251-4434-A416-A8097CE63685}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2331,7 +2355,7 @@
         <v>1144</v>
       </c>
       <c r="N8" s="7">
-        <v>1202399</v>
+        <v>1202398</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2382,7 +2406,7 @@
         <v>1228</v>
       </c>
       <c r="N9" s="7">
-        <v>1290113</v>
+        <v>1290112</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3076,7 +3100,7 @@
         <v>2513</v>
       </c>
       <c r="D23" s="7">
-        <v>2579901</v>
+        <v>2579902</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3127,7 +3151,7 @@
         <v>3068</v>
       </c>
       <c r="D24" s="7">
-        <v>3127222</v>
+        <v>3127223</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3193,7 +3217,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DF2B372-A4B7-4A3B-B381-FA68B49A2CD2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC1D117-7466-4092-8915-F2067FABF607}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3630,10 +3654,10 @@
         <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -3642,13 +3666,13 @@
         <v>189084</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -3657,13 +3681,13 @@
         <v>301954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3678,13 +3702,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>472</v>
@@ -3693,13 +3717,13 @@
         <v>503410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
@@ -3708,13 +3732,13 @@
         <v>1045045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3806,13 @@
         <v>147658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3797,13 +3821,13 @@
         <v>207955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3812,13 +3836,13 @@
         <v>355612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,13 +3857,13 @@
         <v>451611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -3848,13 +3872,13 @@
         <v>390508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>748</v>
@@ -3863,13 +3887,13 @@
         <v>842120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3961,13 @@
         <v>196182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3952,13 +3976,13 @@
         <v>221715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>380</v>
@@ -3967,13 +3991,13 @@
         <v>417896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3988,28 +4012,28 @@
         <v>225822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
       </c>
       <c r="I17" s="7">
-        <v>208449</v>
+        <v>208448</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>396</v>
@@ -4018,13 +4042,13 @@
         <v>434271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,7 +4075,7 @@
         <v>390</v>
       </c>
       <c r="I18" s="7">
-        <v>430164</v>
+        <v>430163</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4092,13 +4116,13 @@
         <v>296285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>362</v>
@@ -4107,13 +4131,13 @@
         <v>388292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>629</v>
@@ -4122,13 +4146,13 @@
         <v>684577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,13 +4167,13 @@
         <v>248795</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>311</v>
@@ -4158,13 +4182,13 @@
         <v>333253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>536</v>
@@ -4173,13 +4197,13 @@
         <v>582049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4271,13 @@
         <v>864034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>1091</v>
@@ -4262,13 +4286,13 @@
         <v>1187387</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>205</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -4277,13 +4301,13 @@
         <v>2051421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,13 +4322,13 @@
         <v>2463500</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H23" s="7">
         <v>2107</v>
@@ -4313,13 +4337,13 @@
         <v>2264727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="M23" s="7">
         <v>4436</v>
@@ -4328,13 +4352,13 @@
         <v>4728227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4412,7 +4436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84058F79-BC08-4D77-AFE0-132E260CAD77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00100046-7B6B-4A47-9423-9D38D06C7BCB}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4429,7 +4453,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4536,13 +4560,13 @@
         <v>40115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -4551,13 +4575,13 @@
         <v>44783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -4566,13 +4590,13 @@
         <v>84898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4611,13 @@
         <v>368247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4602,13 +4626,13 @@
         <v>344675</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M5" s="7">
         <v>698</v>
@@ -4617,13 +4641,13 @@
         <v>712922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4715,13 @@
         <v>75106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -4706,13 +4730,13 @@
         <v>134872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="M7" s="7">
         <v>210</v>
@@ -4721,13 +4745,13 @@
         <v>209978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4766,13 @@
         <v>507604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -4757,13 +4781,13 @@
         <v>423269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>924</v>
@@ -4772,13 +4796,13 @@
         <v>930873</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4870,13 @@
         <v>130709</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -4861,13 +4885,13 @@
         <v>178800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
@@ -4876,13 +4900,13 @@
         <v>309509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4921,13 @@
         <v>527841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -4912,28 +4936,28 @@
         <v>472134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M11" s="7">
         <v>978</v>
       </c>
       <c r="N11" s="7">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,7 +4999,7 @@
         <v>1283</v>
       </c>
       <c r="N12" s="7">
-        <v>1309484</v>
+        <v>1309483</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5001,13 +5025,13 @@
         <v>200461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -5016,13 +5040,13 @@
         <v>225533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="M13" s="7">
         <v>392</v>
@@ -5031,13 +5055,13 @@
         <v>425994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5076,13 @@
         <v>440409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H14" s="7">
         <v>382</v>
@@ -5067,13 +5091,13 @@
         <v>414009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="M14" s="7">
         <v>778</v>
@@ -5082,13 +5106,13 @@
         <v>854418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,13 +5180,13 @@
         <v>190730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -5171,13 +5195,13 @@
         <v>232968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -5186,13 +5210,13 @@
         <v>423699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,13 +5231,13 @@
         <v>282135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5222,13 +5246,13 @@
         <v>257421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -5237,13 +5261,13 @@
         <v>539555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,13 +5335,13 @@
         <v>294335</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>222</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>342</v>
@@ -5326,13 +5350,13 @@
         <v>400955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>649</v>
@@ -5341,13 +5365,13 @@
         <v>695290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,13 +5386,13 @@
         <v>281827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>232</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -5377,13 +5401,13 @@
         <v>366532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="M20" s="7">
         <v>608</v>
@@ -5392,13 +5416,13 @@
         <v>648359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5466,13 +5490,13 @@
         <v>931456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>1123</v>
@@ -5481,13 +5505,13 @@
         <v>1217911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="M22" s="7">
         <v>2010</v>
@@ -5496,13 +5520,13 @@
         <v>2149368</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,13 +5541,13 @@
         <v>2408064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="H23" s="7">
         <v>2171</v>
@@ -5532,13 +5556,13 @@
         <v>2278038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="M23" s="7">
         <v>4463</v>
@@ -5547,13 +5571,13 @@
         <v>4686101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5631,7 +5655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFF01A4-436D-443B-8672-0A720030E85C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982E1D9-717A-41A1-8507-6C78E7253456}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5648,7 +5672,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5755,13 +5779,13 @@
         <v>60923</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="H4" s="7">
         <v>54</v>
@@ -5770,13 +5794,13 @@
         <v>103328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -5785,13 +5809,13 @@
         <v>164251</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5806,13 +5830,13 @@
         <v>316756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
@@ -5821,13 +5845,13 @@
         <v>251629</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -5836,13 +5860,13 @@
         <v>568385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5910,13 +5934,13 @@
         <v>110691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5925,13 +5949,13 @@
         <v>125147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -5940,13 +5964,13 @@
         <v>235838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5961,13 +5985,13 @@
         <v>317705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -5976,13 +6000,13 @@
         <v>373430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="M8" s="7">
         <v>574</v>
@@ -5991,13 +6015,13 @@
         <v>691135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>265</v>
+        <v>430</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,13 +6089,13 @@
         <v>150855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
@@ -6080,13 +6104,13 @@
         <v>191369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
@@ -6095,13 +6119,13 @@
         <v>342224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6140,13 @@
         <v>406397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="H11" s="7">
         <v>580</v>
@@ -6131,13 +6155,13 @@
         <v>390714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
@@ -6146,13 +6170,13 @@
         <v>797110</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6244,13 @@
         <v>237414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="H13" s="7">
         <v>406</v>
@@ -6235,13 +6259,13 @@
         <v>283581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>455</v>
       </c>
       <c r="M13" s="7">
         <v>622</v>
@@ -6250,13 +6274,13 @@
         <v>520995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6295,13 @@
         <v>486576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>212</v>
+        <v>459</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
@@ -6286,13 +6310,13 @@
         <v>462485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>451</v>
+        <v>462</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>463</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M14" s="7">
         <v>1182</v>
@@ -6301,13 +6325,13 @@
         <v>949061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6399,13 @@
         <v>269925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -6390,13 +6414,13 @@
         <v>268990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="M16" s="7">
         <v>722</v>
@@ -6405,13 +6429,13 @@
         <v>538915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6450,13 @@
         <v>330232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="H17" s="7">
         <v>573</v>
@@ -6441,13 +6465,13 @@
         <v>324941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="M17" s="7">
         <v>941</v>
@@ -6456,13 +6480,13 @@
         <v>655173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6530,13 +6554,13 @@
         <v>355478</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="H19" s="7">
         <v>812</v>
@@ -6545,13 +6569,13 @@
         <v>448401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>374</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="M19" s="7">
         <v>1339</v>
@@ -6560,13 +6584,13 @@
         <v>803879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,13 +6605,13 @@
         <v>342277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>894</v>
@@ -6596,13 +6620,13 @@
         <v>577164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>484</v>
+        <v>367</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="M20" s="7">
         <v>1395</v>
@@ -6611,13 +6635,13 @@
         <v>919441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>237</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6685,13 +6709,13 @@
         <v>1185285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H22" s="7">
         <v>2074</v>
@@ -6700,13 +6724,13 @@
         <v>1420816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="M22" s="7">
         <v>3360</v>
@@ -6715,13 +6739,13 @@
         <v>2606102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,13 +6760,13 @@
         <v>2199943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H23" s="7">
         <v>3282</v>
@@ -6751,13 +6775,13 @@
         <v>2380362</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="M23" s="7">
         <v>5372</v>
@@ -6766,13 +6790,13 @@
         <v>4580305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73AC9BC0-59AD-4FD1-8BCB-5DA3F0CAB3B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9EC43F-2C34-4A2A-B20C-57B9069856BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F4B6308-1F99-4A4C-AF40-2D8C63BB29C1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{963C0F1A-8E3D-470B-B24D-75C1342D486E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>4,7%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
   </si>
   <si>
     <t>5,44%</t>
   </si>
   <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>95,3%</t>
   </si>
   <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
   </si>
   <si>
     <t>94,56%</t>
   </si>
   <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
   </si>
   <si>
     <t>94,94%</t>
   </si>
   <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>3,93%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>6,8%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>96,07%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
   </si>
   <si>
     <t>93,2%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -197,55 +197,55 @@
     <t>9,41%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>11,14%</t>
   </si>
   <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
   </si>
   <si>
     <t>90,59%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
   </si>
   <si>
     <t>88,86%</t>
   </si>
   <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -254,55 +254,49 @@
     <t>14,37%</t>
   </si>
   <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>17,91%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
   </si>
   <si>
     <t>19,3%</t>
   </si>
   <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
   </si>
   <si>
     <t>16,84%</t>
   </si>
   <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
+    <t>14,54%</t>
   </si>
   <si>
     <t>85,63%</t>
   </si>
   <si>
-    <t>82,09%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
   </si>
   <si>
     <t>80,7%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
+    <t>85,46%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -311,1282 +305,1270 @@
     <t>36,36%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>47,03%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>47,69%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>51,45%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>52,31%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
+  </si>
+  <si>
+    <t>32,66%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>65,25%</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>51,81%</t>
+  </si>
+  <si>
+    <t>51,54%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>48,46%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>54,36%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>52,24%</t>
+  </si>
+  <si>
+    <t>48,45%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>47,76%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>77,68%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>30,04%</t>
+  </si>
+  <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>62,59%</t>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>69,15%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>69,96%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>79,43%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2012 (Tasa respuesta: 97,06%)</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>23,83%</t>
-  </si>
-  <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>68,99%</t>
-  </si>
-  <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>79,57%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>34,75%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>26,75%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>67,5%</t>
-  </si>
-  <si>
-    <t>73,25%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>51,54%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>53,51%</t>
-  </si>
-  <si>
-    <t>48,16%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,42%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,51%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>31,16%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,69%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>65,09%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>45,14%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>32,79%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>67,21%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>62,02%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>43,72%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
   </si>
   <si>
     <t>56,28%</t>
   </si>
   <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,5%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>68,86%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,23%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>74,36%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>52,26%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>49,87%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>50,13%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>53,35%</t>
   </si>
   <si>
-    <t>63,41%</t>
+    <t>49,63%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
   </si>
   <si>
     <t>35,01%</t>
   </si>
   <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
+    <t>37,09%</t>
   </si>
   <si>
     <t>37,38%</t>
   </si>
   <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
   </si>
   <si>
     <t>36,26%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
   </si>
   <si>
     <t>64,99%</t>
   </si>
   <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>67,09%</t>
+    <t>62,91%</t>
   </si>
   <si>
     <t>62,62%</t>
   </si>
   <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>63,74%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
 </sst>
 </file>
@@ -1998,7 +1980,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C066834E-F251-4434-A416-A8097CE63685}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E76E724-FC2D-4ED4-B45F-09FB9EE40A05}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2623,7 +2605,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2620,13 @@
         <v>417930</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>382</v>
@@ -2653,13 +2635,13 @@
         <v>394989</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>772</v>
@@ -2668,13 +2650,13 @@
         <v>812919</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2730,7 +2712,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2742,13 +2724,13 @@
         <v>133544</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>126</v>
@@ -2757,13 +2739,13 @@
         <v>127865</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>263</v>
@@ -2772,13 +2754,13 @@
         <v>261409</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2775,13 @@
         <v>233779</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>259</v>
@@ -2808,13 +2790,13 @@
         <v>265066</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>495</v>
@@ -2823,13 +2805,13 @@
         <v>498845</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2885,7 +2867,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2897,13 +2879,13 @@
         <v>236305</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>296</v>
@@ -2912,13 +2894,13 @@
         <v>301807</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>543</v>
@@ -2927,13 +2909,13 @@
         <v>538112</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2930,13 @@
         <v>250429</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>330</v>
@@ -2963,13 +2945,13 @@
         <v>339901</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>589</v>
@@ -2978,13 +2960,13 @@
         <v>590331</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3052,13 +3034,13 @@
         <v>547321</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H22" s="7">
         <v>676</v>
@@ -3067,13 +3049,13 @@
         <v>691606</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M22" s="7">
         <v>1231</v>
@@ -3082,13 +3064,13 @@
         <v>1238927</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3085,13 @@
         <v>2579902</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H23" s="7">
         <v>2454</v>
@@ -3118,13 +3100,13 @@
         <v>2516427</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M23" s="7">
         <v>4967</v>
@@ -3133,13 +3115,13 @@
         <v>5096329</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3195,7 +3177,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -3217,7 +3199,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC1D117-7466-4092-8915-F2067FABF607}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03201F1F-9BBD-4DFC-A9AB-F1C32B5FB72C}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3234,7 +3216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3341,13 +3323,13 @@
         <v>23375</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -3356,13 +3338,13 @@
         <v>57539</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -3371,13 +3353,13 @@
         <v>80914</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3374,13 @@
         <v>416659</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -3407,13 +3389,13 @@
         <v>359815</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>760</v>
@@ -3422,13 +3404,13 @@
         <v>776474</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3478,13 @@
         <v>87664</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -3511,13 +3493,13 @@
         <v>122803</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3526,13 +3508,13 @@
         <v>210468</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3529,13 @@
         <v>578976</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -3562,28 +3544,28 @@
         <v>469292</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1007</v>
       </c>
       <c r="N8" s="7">
-        <v>1048267</v>
+        <v>1048268</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3625,7 +3607,7 @@
         <v>1204</v>
       </c>
       <c r="N9" s="7">
-        <v>1258735</v>
+        <v>1258736</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3651,13 +3633,13 @@
         <v>112871</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -3666,13 +3648,13 @@
         <v>189084</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -3681,13 +3663,13 @@
         <v>301954</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3684,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>472</v>
@@ -3717,13 +3699,13 @@
         <v>503410</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
@@ -3732,13 +3714,13 @@
         <v>1045045</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3806,13 +3788,13 @@
         <v>147658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>200</v>
+        <v>167</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3821,13 +3803,13 @@
         <v>207955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3836,13 +3818,13 @@
         <v>355612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3839,13 @@
         <v>451611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -3872,13 +3854,13 @@
         <v>390508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="7">
         <v>748</v>
@@ -3887,13 +3869,13 @@
         <v>842120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3949,7 +3931,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3961,13 +3943,13 @@
         <v>196182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3976,13 +3958,13 @@
         <v>221715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>380</v>
@@ -3991,13 +3973,13 @@
         <v>417896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,28 +3994,28 @@
         <v>225822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
       </c>
       <c r="I17" s="7">
-        <v>208448</v>
+        <v>208449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="M17" s="7">
         <v>396</v>
@@ -4042,13 +4024,13 @@
         <v>434271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4075,7 +4057,7 @@
         <v>390</v>
       </c>
       <c r="I18" s="7">
-        <v>430163</v>
+        <v>430164</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4104,7 +4086,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4116,13 +4098,13 @@
         <v>296285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="7">
         <v>362</v>
@@ -4131,13 +4113,13 @@
         <v>388292</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M19" s="7">
         <v>629</v>
@@ -4146,13 +4128,13 @@
         <v>684577</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4164,16 +4146,16 @@
         <v>225</v>
       </c>
       <c r="D20" s="7">
-        <v>248795</v>
+        <v>248796</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H20" s="7">
         <v>311</v>
@@ -4182,13 +4164,13 @@
         <v>333253</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M20" s="7">
         <v>536</v>
@@ -4197,13 +4179,13 @@
         <v>582049</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,7 +4197,7 @@
         <v>492</v>
       </c>
       <c r="D21" s="7">
-        <v>545080</v>
+        <v>545081</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4271,13 +4253,13 @@
         <v>864034</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H22" s="7">
         <v>1091</v>
@@ -4286,13 +4268,13 @@
         <v>1187387</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>1880</v>
@@ -4301,13 +4283,13 @@
         <v>2051421</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4322,13 +4304,13 @@
         <v>2463500</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H23" s="7">
         <v>2107</v>
@@ -4337,13 +4319,13 @@
         <v>2264727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M23" s="7">
         <v>4436</v>
@@ -4352,13 +4334,13 @@
         <v>4728227</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4414,7 +4396,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -4436,7 +4418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00100046-7B6B-4A47-9423-9D38D06C7BCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E02235-3470-48C0-BF87-1836DFB7D7F1}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4453,7 +4435,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4560,13 +4542,13 @@
         <v>40115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -4575,13 +4557,13 @@
         <v>44783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -4590,13 +4572,13 @@
         <v>84898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4593,13 @@
         <v>368247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4626,13 +4608,13 @@
         <v>344675</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>698</v>
@@ -4641,13 +4623,13 @@
         <v>712922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4715,13 +4697,13 @@
         <v>75106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -4730,13 +4712,13 @@
         <v>134872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>210</v>
@@ -4745,13 +4727,13 @@
         <v>209978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,13 +4748,13 @@
         <v>507604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -4781,13 +4763,13 @@
         <v>423269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>924</v>
@@ -4796,13 +4778,13 @@
         <v>930873</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4870,13 +4852,13 @@
         <v>130709</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -4885,13 +4867,13 @@
         <v>178800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
@@ -4900,13 +4882,13 @@
         <v>309509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4921,13 +4903,13 @@
         <v>527841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -4936,28 +4918,28 @@
         <v>472134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
         <v>978</v>
       </c>
       <c r="N11" s="7">
-        <v>999974</v>
+        <v>999975</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4999,7 +4981,7 @@
         <v>1283</v>
       </c>
       <c r="N12" s="7">
-        <v>1309483</v>
+        <v>1309484</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5025,13 +5007,13 @@
         <v>200461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -5040,13 +5022,13 @@
         <v>225533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
         <v>392</v>
@@ -5055,13 +5037,13 @@
         <v>425994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,13 +5058,13 @@
         <v>440409</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>382</v>
@@ -5091,13 +5073,13 @@
         <v>414009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>778</v>
@@ -5106,13 +5088,13 @@
         <v>854418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5168,7 +5150,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5180,13 +5162,13 @@
         <v>190730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -5195,13 +5177,13 @@
         <v>232968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -5210,13 +5192,13 @@
         <v>423699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5213,13 @@
         <v>282135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5246,13 +5228,13 @@
         <v>257421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -5261,13 +5243,13 @@
         <v>539555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5323,7 +5305,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5335,13 +5317,13 @@
         <v>294335</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="H19" s="7">
         <v>342</v>
@@ -5350,13 +5332,13 @@
         <v>400955</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M19" s="7">
         <v>649</v>
@@ -5365,13 +5347,13 @@
         <v>695290</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5368,13 @@
         <v>281827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>232</v>
+        <v>368</v>
       </c>
       <c r="H20" s="7">
         <v>304</v>
@@ -5401,13 +5383,13 @@
         <v>366532</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="M20" s="7">
         <v>608</v>
@@ -5416,13 +5398,13 @@
         <v>648359</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5490,13 +5472,13 @@
         <v>931456</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H22" s="7">
         <v>1123</v>
@@ -5505,13 +5487,13 @@
         <v>1217911</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="M22" s="7">
         <v>2010</v>
@@ -5520,13 +5502,13 @@
         <v>2149368</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>387</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5541,13 +5523,13 @@
         <v>2408064</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="H23" s="7">
         <v>2171</v>
@@ -5556,13 +5538,13 @@
         <v>2278038</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M23" s="7">
         <v>4463</v>
@@ -5571,13 +5553,13 @@
         <v>4686101</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>395</v>
+        <v>212</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5633,7 +5615,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -5655,7 +5637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982E1D9-717A-41A1-8507-6C78E7253456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB17D3-EC0F-4277-B605-0BA64895084F}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5672,7 +5654,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5779,13 +5761,13 @@
         <v>60923</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="H4" s="7">
         <v>54</v>
@@ -5794,13 +5776,13 @@
         <v>103328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
@@ -5809,13 +5791,13 @@
         <v>164251</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5830,13 +5812,13 @@
         <v>316756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
@@ -5845,13 +5827,13 @@
         <v>251629</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
@@ -5860,13 +5842,13 @@
         <v>568385</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5934,13 +5916,13 @@
         <v>110691</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
@@ -5949,13 +5931,13 @@
         <v>125147</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
@@ -5964,13 +5946,13 @@
         <v>235838</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5985,13 +5967,13 @@
         <v>317705</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
@@ -6000,13 +5982,13 @@
         <v>373430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>574</v>
@@ -6015,13 +5997,13 @@
         <v>691135</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,13 +6071,13 @@
         <v>150855</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
@@ -6104,13 +6086,13 @@
         <v>191369</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
@@ -6119,13 +6101,13 @@
         <v>342224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6140,13 +6122,13 @@
         <v>406397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="H11" s="7">
         <v>580</v>
@@ -6155,13 +6137,13 @@
         <v>390714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
@@ -6170,13 +6152,13 @@
         <v>797110</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6244,13 +6226,13 @@
         <v>237414</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="H13" s="7">
         <v>406</v>
@@ -6259,13 +6241,13 @@
         <v>283581</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="M13" s="7">
         <v>622</v>
@@ -6274,13 +6256,13 @@
         <v>520995</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6295,13 +6277,13 @@
         <v>486576</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
@@ -6310,13 +6292,13 @@
         <v>462485</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M14" s="7">
         <v>1182</v>
@@ -6325,13 +6307,13 @@
         <v>949061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,7 +6369,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6399,13 +6381,13 @@
         <v>269925</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>468</v>
+        <v>367</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
@@ -6414,13 +6396,13 @@
         <v>268990</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="M16" s="7">
         <v>722</v>
@@ -6429,13 +6411,13 @@
         <v>538915</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>476</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6450,13 +6432,13 @@
         <v>330232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>477</v>
+        <v>359</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="H17" s="7">
         <v>573</v>
@@ -6465,13 +6447,13 @@
         <v>324941</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="M17" s="7">
         <v>941</v>
@@ -6480,13 +6462,13 @@
         <v>655173</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>484</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6542,7 +6524,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6551,16 +6533,16 @@
         <v>527</v>
       </c>
       <c r="D19" s="7">
-        <v>355478</v>
+        <v>355477</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="H19" s="7">
         <v>812</v>
@@ -6569,13 +6551,13 @@
         <v>448401</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>374</v>
+        <v>479</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="M19" s="7">
         <v>1339</v>
@@ -6584,13 +6566,13 @@
         <v>803879</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>247</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6605,13 +6587,13 @@
         <v>342277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="H20" s="7">
         <v>894</v>
@@ -6620,13 +6602,13 @@
         <v>577164</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>367</v>
+        <v>488</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="M20" s="7">
         <v>1395</v>
@@ -6635,13 +6617,13 @@
         <v>919441</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>237</v>
+        <v>492</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6653,7 +6635,7 @@
         <v>1028</v>
       </c>
       <c r="D21" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6709,13 +6691,13 @@
         <v>1185285</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>499</v>
+        <v>254</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="H22" s="7">
         <v>2074</v>
@@ -6724,13 +6706,13 @@
         <v>1420816</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M22" s="7">
         <v>3360</v>
@@ -6739,13 +6721,13 @@
         <v>2606102</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6760,13 +6742,13 @@
         <v>2199943</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>509</v>
+        <v>264</v>
       </c>
       <c r="H23" s="7">
         <v>3282</v>
@@ -6775,13 +6757,13 @@
         <v>2380362</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="M23" s="7">
         <v>5372</v>
@@ -6790,13 +6772,13 @@
         <v>4580305</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6852,7 +6834,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P35-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P35-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C9EC43F-2C34-4A2A-B20C-57B9069856BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D97627-A799-4A7E-B0D3-5A01D6EC1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{963C0F1A-8E3D-470B-B24D-75C1342D486E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0AABD9C7-04D0-4C5A-AB87-4C14AE8EEFE8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="573">
   <si>
     <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2007 (Tasa respuesta: 95,19%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>3,93%</t>
@@ -191,7 +191,7 @@
     <t>94,44%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>9,41%</t>
@@ -248,7 +248,7 @@
     <t>90,51%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>14,37%</t>
@@ -299,7 +299,7 @@
     <t>85,46%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>36,36%</t>
@@ -356,61 +356,118 @@
     <t>69,29%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>47,03%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>47,69%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>52,97%</t>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,89%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>58,53%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>54,99%</t>
   </si>
   <si>
     <t>17,5%</t>
@@ -683,9 +740,6 @@
     <t>72,89%</t>
   </si>
   <si>
-    <t>46,49%</t>
-  </si>
-  <si>
     <t>41,66%</t>
   </si>
   <si>
@@ -710,9 +764,6 @@
     <t>52,69%</t>
   </si>
   <si>
-    <t>53,51%</t>
-  </si>
-  <si>
     <t>48,19%</t>
   </si>
   <si>
@@ -737,838 +788,976 @@
     <t>54,33%</t>
   </si>
   <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>51,09%</t>
+  </si>
+  <si>
+    <t>58,92%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>41,08%</t>
+  </si>
+  <si>
+    <t>48,91%</t>
+  </si>
+  <si>
+    <t>56,17%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>57,41%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>72,57%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>63,75%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>71,94%</t>
+  </si>
+  <si>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>78,71%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>52,22%</t>
+  </si>
+  <si>
+    <t>43,99%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>47,78%</t>
+  </si>
+  <si>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>56,01%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>58,19%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>58,89%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>29,34%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>70,66%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>44,16%</t>
+  </si>
+  <si>
+    <t>41,6%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>56,0%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>50,77%</t>
   </si>
   <si>
-    <t>56,63%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>50,06%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>72,57%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2016 (Tasa respuesta: 98,54%)</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,94%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>83,3%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>75,78%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>78,71%</t>
-  </si>
-  <si>
-    <t>31,28%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>47,51%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>51,09%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>52,24%</t>
-  </si>
-  <si>
-    <t>48,45%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>47,76%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,44%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>Población según si su médico le ha aconsejado que realice algún tipo de ejercicio físico en 2023 (Tasa respuesta: 99,87%)</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>76,94%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>70,16%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>77,68%</t>
-  </si>
-  <si>
-    <t>27,07%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>32,79%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>67,21%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>61,99%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>45,99%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>39,22%</t>
-  </si>
-  <si>
-    <t>36,26%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>62,91%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>60,78%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>63,74%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
+  </si>
+  <si>
+    <t>46,88%</t>
+  </si>
+  <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>49,03%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>50,97%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
+  </si>
+  <si>
+    <t>37,57%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>68,45%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>66,9%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
   </si>
 </sst>
 </file>
@@ -1980,8 +2169,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E76E724-FC2D-4ED4-B45F-09FB9EE40A05}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B14840-85DE-4BF4-8A40-7D62C755C01E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2337,7 +2526,7 @@
         <v>1144</v>
       </c>
       <c r="N8" s="7">
-        <v>1202398</v>
+        <v>1202399</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2388,7 +2577,7 @@
         <v>1228</v>
       </c>
       <c r="N9" s="7">
-        <v>1290112</v>
+        <v>1290113</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2873,10 +3062,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="D19" s="7">
-        <v>236305</v>
+        <v>127667</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>106</v>
@@ -2888,10 +3077,10 @@
         <v>108</v>
       </c>
       <c r="H19" s="7">
-        <v>296</v>
+        <v>165</v>
       </c>
       <c r="I19" s="7">
-        <v>301807</v>
+        <v>151252</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>109</v>
@@ -2903,10 +3092,10 @@
         <v>111</v>
       </c>
       <c r="M19" s="7">
-        <v>543</v>
+        <v>297</v>
       </c>
       <c r="N19" s="7">
-        <v>538112</v>
+        <v>278919</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>112</v>
@@ -2924,10 +3113,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>259</v>
+        <v>161</v>
       </c>
       <c r="D20" s="7">
-        <v>250429</v>
+        <v>155710</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>115</v>
@@ -2939,10 +3128,10 @@
         <v>117</v>
       </c>
       <c r="H20" s="7">
-        <v>330</v>
+        <v>184</v>
       </c>
       <c r="I20" s="7">
-        <v>339901</v>
+        <v>171814</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>118</v>
@@ -2954,10 +3143,10 @@
         <v>120</v>
       </c>
       <c r="M20" s="7">
-        <v>589</v>
+        <v>345</v>
       </c>
       <c r="N20" s="7">
-        <v>590331</v>
+        <v>327524</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>121</v>
@@ -2975,10 +3164,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>506</v>
+        <v>293</v>
       </c>
       <c r="D21" s="7">
-        <v>486734</v>
+        <v>283377</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2990,10 +3179,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>626</v>
+        <v>349</v>
       </c>
       <c r="I21" s="7">
-        <v>641708</v>
+        <v>323066</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -3005,10 +3194,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1132</v>
+        <v>642</v>
       </c>
       <c r="N21" s="7">
-        <v>1128443</v>
+        <v>606443</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -3022,55 +3211,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>555</v>
+        <v>115</v>
       </c>
       <c r="D22" s="7">
-        <v>547321</v>
+        <v>108637</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
-        <v>676</v>
+        <v>131</v>
       </c>
       <c r="I22" s="7">
-        <v>691606</v>
+        <v>150555</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M22" s="7">
-        <v>1231</v>
+        <v>246</v>
       </c>
       <c r="N22" s="7">
-        <v>1238927</v>
+        <v>259193</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,49 +3268,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2513</v>
+        <v>98</v>
       </c>
       <c r="D23" s="7">
-        <v>2579902</v>
+        <v>94720</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
-        <v>2454</v>
+        <v>146</v>
       </c>
       <c r="I23" s="7">
-        <v>2516427</v>
+        <v>168088</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
-        <v>4967</v>
+        <v>244</v>
       </c>
       <c r="N23" s="7">
-        <v>5096329</v>
+        <v>262807</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,63 +3319,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>213</v>
+      </c>
+      <c r="D24" s="7">
+        <v>203357</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>277</v>
+      </c>
+      <c r="I24" s="7">
+        <v>318643</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>490</v>
+      </c>
+      <c r="N24" s="7">
+        <v>522000</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>555</v>
+      </c>
+      <c r="D25" s="7">
+        <v>547321</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" s="7">
+        <v>676</v>
+      </c>
+      <c r="I25" s="7">
+        <v>691606</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1231</v>
+      </c>
+      <c r="N25" s="7">
+        <v>1238927</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2513</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2579902</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2454</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2516427</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4967</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5096329</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3068</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3127223</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3130</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3208033</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6198</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6335256</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3199,8 +3544,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03201F1F-9BBD-4DFC-A9AB-F1C32B5FB72C}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541CCFD6-89D7-479A-BF03-69C2D698157F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3216,7 +3561,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3323,13 +3668,13 @@
         <v>23375</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="H4" s="7">
         <v>57</v>
@@ -3338,13 +3683,13 @@
         <v>57539</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>80</v>
@@ -3353,13 +3698,13 @@
         <v>80914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,16 +3716,16 @@
         <v>409</v>
       </c>
       <c r="D5" s="7">
-        <v>416659</v>
+        <v>416660</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -3389,13 +3734,13 @@
         <v>359815</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>760</v>
@@ -3404,13 +3749,13 @@
         <v>776474</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3767,7 @@
         <v>432</v>
       </c>
       <c r="D6" s="7">
-        <v>440034</v>
+        <v>440035</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3478,13 +3823,13 @@
         <v>87664</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>114</v>
@@ -3493,13 +3838,13 @@
         <v>122803</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>197</v>
@@ -3508,13 +3853,13 @@
         <v>210468</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3529,13 +3874,13 @@
         <v>578976</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>441</v>
@@ -3544,28 +3889,28 @@
         <v>469292</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>1007</v>
       </c>
       <c r="N8" s="7">
-        <v>1048268</v>
+        <v>1048267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3607,7 +3952,7 @@
         <v>1204</v>
       </c>
       <c r="N9" s="7">
-        <v>1258736</v>
+        <v>1258735</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3633,13 +3978,13 @@
         <v>112871</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>177</v>
@@ -3648,13 +3993,13 @@
         <v>189084</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>285</v>
@@ -3663,13 +4008,13 @@
         <v>301954</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3684,13 +4029,13 @@
         <v>541634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>472</v>
@@ -3699,13 +4044,13 @@
         <v>503410</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>989</v>
@@ -3714,13 +4059,13 @@
         <v>1045045</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,13 +4133,13 @@
         <v>147658</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>180</v>
@@ -3803,13 +4148,13 @@
         <v>207955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>309</v>
@@ -3818,13 +4163,13 @@
         <v>355612</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3839,13 +4184,13 @@
         <v>451611</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>343</v>
@@ -3854,13 +4199,13 @@
         <v>390508</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>748</v>
@@ -3869,13 +4214,13 @@
         <v>842120</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3943,13 +4288,13 @@
         <v>196182</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>201</v>
@@ -3958,13 +4303,13 @@
         <v>221715</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>380</v>
@@ -3973,13 +4318,13 @@
         <v>417896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4339,13 @@
         <v>225822</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H17" s="7">
         <v>189</v>
@@ -4009,13 +4354,13 @@
         <v>208449</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M17" s="7">
         <v>396</v>
@@ -4024,13 +4369,13 @@
         <v>434271</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,49 +4437,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="D19" s="7">
-        <v>296285</v>
+        <v>160732</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H19" s="7">
-        <v>362</v>
+        <v>188</v>
       </c>
       <c r="I19" s="7">
-        <v>388292</v>
+        <v>195206</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M19" s="7">
-        <v>629</v>
+        <v>336</v>
       </c>
       <c r="N19" s="7">
-        <v>684577</v>
+        <v>355938</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4143,49 +4488,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="D20" s="7">
-        <v>248796</v>
+        <v>143040</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="H20" s="7">
-        <v>311</v>
+        <v>145</v>
       </c>
       <c r="I20" s="7">
-        <v>333253</v>
+        <v>148166</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="M20" s="7">
-        <v>536</v>
+        <v>274</v>
       </c>
       <c r="N20" s="7">
-        <v>582049</v>
+        <v>291206</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,10 +4539,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>492</v>
+        <v>277</v>
       </c>
       <c r="D21" s="7">
-        <v>545081</v>
+        <v>303772</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4209,10 +4554,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>673</v>
+        <v>333</v>
       </c>
       <c r="I21" s="7">
-        <v>721545</v>
+        <v>343372</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4224,10 +4569,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1165</v>
+        <v>610</v>
       </c>
       <c r="N21" s="7">
-        <v>1266626</v>
+        <v>647144</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4241,55 +4586,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>789</v>
+        <v>119</v>
       </c>
       <c r="D22" s="7">
-        <v>864034</v>
+        <v>135553</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H22" s="7">
-        <v>1091</v>
+        <v>174</v>
       </c>
       <c r="I22" s="7">
-        <v>1187387</v>
+        <v>193086</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="M22" s="7">
-        <v>1880</v>
+        <v>293</v>
       </c>
       <c r="N22" s="7">
-        <v>2051421</v>
+        <v>328639</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4298,49 +4643,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2329</v>
+        <v>96</v>
       </c>
       <c r="D23" s="7">
-        <v>2463500</v>
+        <v>105755</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>276</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>277</v>
       </c>
       <c r="H23" s="7">
-        <v>2107</v>
+        <v>166</v>
       </c>
       <c r="I23" s="7">
-        <v>2264727</v>
+        <v>185088</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="7">
         <v>262</v>
       </c>
-      <c r="K23" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M23" s="7">
-        <v>4436</v>
-      </c>
       <c r="N23" s="7">
-        <v>4728227</v>
+        <v>290843</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4349,63 +4694,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>215</v>
+      </c>
+      <c r="D24" s="7">
+        <v>241308</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>340</v>
+      </c>
+      <c r="I24" s="7">
+        <v>378174</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>555</v>
+      </c>
+      <c r="N24" s="7">
+        <v>619482</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>789</v>
+      </c>
+      <c r="D25" s="7">
+        <v>864034</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1091</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1187387</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1880</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2051421</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2329</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2463500</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2107</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2264727</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4436</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4728227</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3118</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3327534</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3198</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3452114</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6316</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6779648</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4418,8 +4919,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E02235-3470-48C0-BF87-1836DFB7D7F1}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846DAD3C-7D25-4523-9EEB-E1B6E9071DE4}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4435,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4542,13 +5043,13 @@
         <v>40115</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="H4" s="7">
         <v>47</v>
@@ -4557,13 +5058,13 @@
         <v>44783</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -4572,13 +5073,13 @@
         <v>84898</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4593,13 +5094,13 @@
         <v>368247</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>278</v>
+        <v>311</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>279</v>
+        <v>312</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="H5" s="7">
         <v>351</v>
@@ -4608,13 +5109,13 @@
         <v>344675</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>314</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="M5" s="7">
         <v>698</v>
@@ -4623,13 +5124,13 @@
         <v>712922</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>317</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>286</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +5198,13 @@
         <v>75106</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>320</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="H7" s="7">
         <v>138</v>
@@ -4712,13 +5213,13 @@
         <v>134872</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="M7" s="7">
         <v>210</v>
@@ -4727,13 +5228,13 @@
         <v>209978</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +5249,13 @@
         <v>507604</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>285</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
       <c r="H8" s="7">
         <v>436</v>
@@ -4763,13 +5264,13 @@
         <v>423269</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>331</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="M8" s="7">
         <v>924</v>
@@ -4778,13 +5279,13 @@
         <v>930873</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>333</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +5353,13 @@
         <v>130709</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>305</v>
+        <v>338</v>
       </c>
       <c r="H10" s="7">
         <v>181</v>
@@ -4867,13 +5368,13 @@
         <v>178800</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="M10" s="7">
         <v>305</v>
@@ -4882,13 +5383,13 @@
         <v>309509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +5404,13 @@
         <v>527841</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="H11" s="7">
         <v>474</v>
@@ -4918,28 +5419,28 @@
         <v>472134</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>317</v>
+        <v>350</v>
       </c>
       <c r="M11" s="7">
         <v>978</v>
       </c>
       <c r="N11" s="7">
-        <v>999975</v>
+        <v>999974</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>318</v>
+        <v>351</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>319</v>
+        <v>352</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>320</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4981,7 +5482,7 @@
         <v>1283</v>
       </c>
       <c r="N12" s="7">
-        <v>1309484</v>
+        <v>1309483</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5007,13 +5508,13 @@
         <v>200461</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>354</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>356</v>
       </c>
       <c r="H13" s="7">
         <v>211</v>
@@ -5022,13 +5523,13 @@
         <v>225533</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="M13" s="7">
         <v>392</v>
@@ -5037,13 +5538,13 @@
         <v>425994</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5055,16 +5556,16 @@
         <v>396</v>
       </c>
       <c r="D14" s="7">
-        <v>440409</v>
+        <v>440410</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>331</v>
+        <v>364</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>332</v>
+        <v>365</v>
       </c>
       <c r="H14" s="7">
         <v>382</v>
@@ -5073,13 +5574,13 @@
         <v>414009</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>333</v>
+        <v>366</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>334</v>
+        <v>367</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>335</v>
+        <v>368</v>
       </c>
       <c r="M14" s="7">
         <v>778</v>
@@ -5088,13 +5589,13 @@
         <v>854418</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>336</v>
+        <v>369</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>337</v>
+        <v>370</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5607,7 @@
         <v>577</v>
       </c>
       <c r="D15" s="7">
-        <v>640870</v>
+        <v>640871</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5162,13 +5663,13 @@
         <v>190730</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>339</v>
+        <v>372</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>341</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>204</v>
@@ -5177,13 +5678,13 @@
         <v>232968</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>371</v>
@@ -5192,13 +5693,13 @@
         <v>423699</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5213,13 +5714,13 @@
         <v>282135</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>349</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="H17" s="7">
         <v>224</v>
@@ -5228,13 +5729,13 @@
         <v>257421</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="M17" s="7">
         <v>477</v>
@@ -5243,13 +5744,13 @@
         <v>539555</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5311,49 +5812,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>307</v>
+        <v>170</v>
       </c>
       <c r="D19" s="7">
-        <v>294335</v>
+        <v>177040</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
-        <v>342</v>
+        <v>202</v>
       </c>
       <c r="I19" s="7">
-        <v>400955</v>
+        <v>214507</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
-        <v>649</v>
+        <v>372</v>
       </c>
       <c r="N19" s="7">
-        <v>695290</v>
+        <v>391547</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5362,49 +5863,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>304</v>
+        <v>147</v>
       </c>
       <c r="D20" s="7">
-        <v>281827</v>
+        <v>149031</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
       <c r="H20" s="7">
-        <v>304</v>
+        <v>144</v>
       </c>
       <c r="I20" s="7">
-        <v>366532</v>
+        <v>154153</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="M20" s="7">
-        <v>608</v>
+        <v>291</v>
       </c>
       <c r="N20" s="7">
-        <v>648359</v>
+        <v>303184</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5413,10 +5914,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>611</v>
+        <v>317</v>
       </c>
       <c r="D21" s="7">
-        <v>576162</v>
+        <v>326071</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5428,10 +5929,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>646</v>
+        <v>346</v>
       </c>
       <c r="I21" s="7">
-        <v>767487</v>
+        <v>368660</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5443,10 +5944,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1257</v>
+        <v>663</v>
       </c>
       <c r="N21" s="7">
-        <v>1343649</v>
+        <v>694731</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5460,55 +5961,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>887</v>
+        <v>137</v>
       </c>
       <c r="D22" s="7">
-        <v>931456</v>
+        <v>117295</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="H22" s="7">
-        <v>1123</v>
+        <v>140</v>
       </c>
       <c r="I22" s="7">
-        <v>1217911</v>
+        <v>186448</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="M22" s="7">
-        <v>2010</v>
+        <v>277</v>
       </c>
       <c r="N22" s="7">
-        <v>2149368</v>
+        <v>303743</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>205</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5517,49 +6018,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2292</v>
+        <v>157</v>
       </c>
       <c r="D23" s="7">
-        <v>2408064</v>
+        <v>132796</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>383</v>
+        <v>415</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>385</v>
+        <v>417</v>
       </c>
       <c r="H23" s="7">
-        <v>2171</v>
+        <v>160</v>
       </c>
       <c r="I23" s="7">
-        <v>2278038</v>
+        <v>212379</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>387</v>
+        <v>419</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="M23" s="7">
-        <v>4463</v>
+        <v>317</v>
       </c>
       <c r="N23" s="7">
-        <v>4686101</v>
+        <v>345175</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>212</v>
+        <v>422</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>390</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5568,63 +6069,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>294</v>
+      </c>
+      <c r="D24" s="7">
+        <v>250091</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>300</v>
+      </c>
+      <c r="I24" s="7">
+        <v>398827</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>594</v>
+      </c>
+      <c r="N24" s="7">
+        <v>648918</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>887</v>
+      </c>
+      <c r="D25" s="7">
+        <v>931456</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1123</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1217911</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="M25" s="7">
+        <v>2010</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2149368</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2292</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2408064</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2171</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2278038</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="M26" s="7">
+        <v>4463</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4686101</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3179</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3339520</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3294</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3495949</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6473</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6835469</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5637,8 +6294,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDFB17D3-EC0F-4277-B605-0BA64895084F}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A954E176-7C07-44A1-B1F8-FC57EE66E38E}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5654,7 +6311,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>391</v>
+        <v>440</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5758,46 +6415,46 @@
         <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>60923</v>
+        <v>59049</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>394</v>
+        <v>443</v>
       </c>
       <c r="H4" s="7">
         <v>54</v>
       </c>
       <c r="I4" s="7">
-        <v>103328</v>
+        <v>85536</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="M4" s="7">
         <v>82</v>
       </c>
       <c r="N4" s="7">
-        <v>164251</v>
+        <v>144585</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>186</v>
+        <v>447</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5809,46 +6466,46 @@
         <v>144</v>
       </c>
       <c r="D5" s="7">
-        <v>316756</v>
+        <v>340938</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="H5" s="7">
         <v>153</v>
       </c>
       <c r="I5" s="7">
-        <v>251629</v>
+        <v>227664</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="M5" s="7">
         <v>297</v>
       </c>
       <c r="N5" s="7">
-        <v>568385</v>
+        <v>568602</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>195</v>
+        <v>456</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>407</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5860,7 +6517,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5875,7 +6532,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5890,7 +6547,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5913,46 +6570,46 @@
         <v>77</v>
       </c>
       <c r="D7" s="7">
-        <v>110691</v>
+        <v>103680</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>408</v>
+        <v>459</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>409</v>
+        <v>460</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>410</v>
+        <v>461</v>
       </c>
       <c r="H7" s="7">
         <v>111</v>
       </c>
       <c r="I7" s="7">
-        <v>125147</v>
+        <v>108441</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>411</v>
+        <v>462</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>412</v>
+        <v>463</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>188</v>
       </c>
       <c r="N7" s="7">
-        <v>235838</v>
+        <v>212121</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5964,46 +6621,46 @@
         <v>225</v>
       </c>
       <c r="D8" s="7">
-        <v>317705</v>
+        <v>319867</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="H8" s="7">
         <v>349</v>
       </c>
       <c r="I8" s="7">
-        <v>373430</v>
+        <v>403063</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="M8" s="7">
         <v>574</v>
       </c>
       <c r="N8" s="7">
-        <v>691135</v>
+        <v>722930</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>425</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6015,7 +6672,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -6030,7 +6687,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -6045,7 +6702,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -6068,46 +6725,46 @@
         <v>143</v>
       </c>
       <c r="D10" s="7">
-        <v>150855</v>
+        <v>137714</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>426</v>
+        <v>477</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>427</v>
+        <v>478</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>428</v>
+        <v>479</v>
       </c>
       <c r="H10" s="7">
         <v>264</v>
       </c>
       <c r="I10" s="7">
-        <v>191369</v>
+        <v>173287</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>429</v>
+        <v>480</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>430</v>
+        <v>481</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>407</v>
       </c>
       <c r="N10" s="7">
-        <v>342224</v>
+        <v>311001</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,46 +6776,46 @@
         <v>403</v>
       </c>
       <c r="D11" s="7">
-        <v>406397</v>
+        <v>398624</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="H11" s="7">
         <v>580</v>
       </c>
       <c r="I11" s="7">
-        <v>390714</v>
+        <v>367890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>439</v>
+        <v>366</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>440</v>
+        <v>489</v>
       </c>
       <c r="M11" s="7">
         <v>983</v>
       </c>
       <c r="N11" s="7">
-        <v>797110</v>
+        <v>766514</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>441</v>
+        <v>490</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>442</v>
+        <v>491</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>443</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6170,7 +6827,7 @@
         <v>546</v>
       </c>
       <c r="D12" s="7">
-        <v>557252</v>
+        <v>536338</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6185,7 +6842,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>582083</v>
+        <v>541177</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6200,7 +6857,7 @@
         <v>1390</v>
       </c>
       <c r="N12" s="7">
-        <v>1139334</v>
+        <v>1077515</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6223,46 +6880,46 @@
         <v>216</v>
       </c>
       <c r="D13" s="7">
-        <v>237414</v>
+        <v>217352</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>444</v>
+        <v>459</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="H13" s="7">
         <v>406</v>
       </c>
       <c r="I13" s="7">
-        <v>283581</v>
+        <v>254987</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
       <c r="M13" s="7">
         <v>622</v>
       </c>
       <c r="N13" s="7">
-        <v>520995</v>
+        <v>472339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>450</v>
+        <v>498</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>451</v>
+        <v>499</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>452</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,46 +6931,46 @@
         <v>449</v>
       </c>
       <c r="D14" s="7">
-        <v>486576</v>
+        <v>670434</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>454</v>
+        <v>501</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>455</v>
+        <v>502</v>
       </c>
       <c r="H14" s="7">
         <v>733</v>
       </c>
       <c r="I14" s="7">
-        <v>462485</v>
+        <v>456781</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>456</v>
+        <v>503</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>457</v>
+        <v>504</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>458</v>
+        <v>505</v>
       </c>
       <c r="M14" s="7">
         <v>1182</v>
       </c>
       <c r="N14" s="7">
-        <v>949061</v>
+        <v>1127215</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>459</v>
+        <v>506</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>460</v>
+        <v>507</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,7 +6982,7 @@
         <v>665</v>
       </c>
       <c r="D15" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6340,7 +6997,7 @@
         <v>1139</v>
       </c>
       <c r="I15" s="7">
-        <v>746066</v>
+        <v>711768</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6355,7 +7012,7 @@
         <v>1804</v>
       </c>
       <c r="N15" s="7">
-        <v>1470056</v>
+        <v>1599554</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6378,46 +7035,46 @@
         <v>295</v>
       </c>
       <c r="D16" s="7">
-        <v>269925</v>
+        <v>246941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>367</v>
+        <v>509</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>462</v>
+        <v>510</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>463</v>
+        <v>511</v>
       </c>
       <c r="H16" s="7">
         <v>427</v>
       </c>
       <c r="I16" s="7">
-        <v>268990</v>
+        <v>241683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>464</v>
+        <v>512</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>465</v>
+        <v>513</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="M16" s="7">
         <v>722</v>
       </c>
       <c r="N16" s="7">
-        <v>538915</v>
+        <v>488625</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>467</v>
+        <v>515</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>468</v>
+        <v>516</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>517</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6429,46 +7086,46 @@
         <v>368</v>
       </c>
       <c r="D17" s="7">
-        <v>330232</v>
+        <v>314293</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>359</v>
+        <v>518</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>469</v>
+        <v>519</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="H17" s="7">
         <v>573</v>
       </c>
       <c r="I17" s="7">
-        <v>324941</v>
+        <v>303535</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>471</v>
+        <v>521</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>472</v>
+        <v>522</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="M17" s="7">
         <v>941</v>
       </c>
       <c r="N17" s="7">
-        <v>655173</v>
+        <v>617827</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>474</v>
+        <v>524</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>525</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6480,7 +7137,7 @@
         <v>663</v>
       </c>
       <c r="D18" s="7">
-        <v>600157</v>
+        <v>561234</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6495,7 +7152,7 @@
         <v>1000</v>
       </c>
       <c r="I18" s="7">
-        <v>593931</v>
+        <v>545218</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6510,7 +7167,7 @@
         <v>1663</v>
       </c>
       <c r="N18" s="7">
-        <v>1194088</v>
+        <v>1106452</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6530,49 +7187,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>284</v>
+      </c>
+      <c r="D19" s="7">
+        <v>181257</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="D19" s="7">
-        <v>355477</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>476</v>
-      </c>
       <c r="F19" s="7" t="s">
-        <v>477</v>
+        <v>528</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="H19" s="7">
-        <v>812</v>
+        <v>381</v>
       </c>
       <c r="I19" s="7">
-        <v>448401</v>
+        <v>191124</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>481</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
-        <v>1339</v>
+        <v>665</v>
       </c>
       <c r="N19" s="7">
-        <v>803879</v>
+        <v>372382</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>483</v>
+        <v>532</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>484</v>
+        <v>533</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,49 +7238,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>501</v>
+        <v>286</v>
       </c>
       <c r="D20" s="7">
-        <v>342277</v>
+        <v>186908</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>534</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>486</v>
+        <v>535</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>487</v>
+        <v>536</v>
       </c>
       <c r="H20" s="7">
-        <v>894</v>
+        <v>445</v>
       </c>
       <c r="I20" s="7">
-        <v>577164</v>
+        <v>416702</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>489</v>
+        <v>256</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>490</v>
+        <v>537</v>
       </c>
       <c r="M20" s="7">
-        <v>1395</v>
+        <v>731</v>
       </c>
       <c r="N20" s="7">
-        <v>919441</v>
+        <v>603609</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>491</v>
+        <v>538</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>493</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,10 +7289,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D21" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6647,10 +7304,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I21" s="7">
-        <v>1025565</v>
+        <v>607826</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6662,10 +7319,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2734</v>
+        <v>1396</v>
       </c>
       <c r="N21" s="7">
-        <v>1723320</v>
+        <v>975991</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6679,55 +7336,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1286</v>
+        <v>243</v>
       </c>
       <c r="D22" s="7">
-        <v>1185285</v>
+        <v>145668</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>494</v>
+        <v>541</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>254</v>
+        <v>542</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>495</v>
+        <v>543</v>
       </c>
       <c r="H22" s="7">
-        <v>2074</v>
+        <v>431</v>
       </c>
       <c r="I22" s="7">
-        <v>1420816</v>
+        <v>208576</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>496</v>
+        <v>544</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>498</v>
+        <v>546</v>
       </c>
       <c r="M22" s="7">
-        <v>3360</v>
+        <v>674</v>
       </c>
       <c r="N22" s="7">
-        <v>2606102</v>
+        <v>354244</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>499</v>
+        <v>547</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>500</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>501</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6736,49 +7393,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2090</v>
+        <v>215</v>
       </c>
       <c r="D23" s="7">
-        <v>2199943</v>
+        <v>137091</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>502</v>
+        <v>549</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>503</v>
+        <v>550</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>264</v>
+        <v>551</v>
       </c>
       <c r="H23" s="7">
-        <v>3282</v>
+        <v>449</v>
       </c>
       <c r="I23" s="7">
-        <v>2380362</v>
+        <v>216851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>504</v>
+        <v>552</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>505</v>
+        <v>553</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>506</v>
+        <v>554</v>
       </c>
       <c r="M23" s="7">
-        <v>5372</v>
+        <v>664</v>
       </c>
       <c r="N23" s="7">
-        <v>4580305</v>
+        <v>353942</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>507</v>
+        <v>555</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>509</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6787,63 +7444,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>458</v>
+      </c>
+      <c r="D24" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>880</v>
+      </c>
+      <c r="I24" s="7">
+        <v>425427</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1338</v>
+      </c>
+      <c r="N24" s="7">
+        <v>708186</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1286</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1091663</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H25" s="7">
+        <v>2074</v>
+      </c>
+      <c r="I25" s="7">
+        <v>1263634</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3360</v>
+      </c>
+      <c r="N25" s="7">
+        <v>2355296</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2090</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2368154</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3282</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2392485</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5372</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4760640</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3376</v>
       </c>
-      <c r="D24" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3459817</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5356</v>
       </c>
-      <c r="I24" s="7">
-        <v>3801178</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3656119</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8732</v>
       </c>
-      <c r="N24" s="7">
-        <v>7186407</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>142</v>
+      <c r="N27" s="7">
+        <v>7115936</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
